--- a/ebayPricer/imports/Comic_List1.xlsx
+++ b/ebayPricer/imports/Comic_List1.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>641ee75043f39f5704acfa8b</t>
+          <t>641f86aa066328f2b62a76c3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,11 +515,7 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
